--- a/initial/doc/gls - New.xlsx
+++ b/initial/doc/gls - New.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" tabRatio="812" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="7" r:id="rId1"/>
     <sheet name="权限控制" sheetId="8" r:id="rId2"/>
     <sheet name="系统" sheetId="9" r:id="rId3"/>
-    <sheet name="邮箱" sheetId="10" r:id="rId4"/>
+    <sheet name="部门" sheetId="12" r:id="rId4"/>
+    <sheet name="邮箱" sheetId="10" r:id="rId5"/>
+    <sheet name="产品" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -290,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1035">
   <si>
     <t>varchar</t>
   </si>
@@ -2845,6 +2847,662 @@
   </si>
   <si>
     <t>关注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">product_id          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品id                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司ID                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品类型                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品名称                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model_no            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品型号                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">品牌名称                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moq                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最小订货量（MOQ）                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fob                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">离岸价格                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">special_features    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品描述                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit_type           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品计量单位                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency_type       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">币种                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_date         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">录入时间                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type1               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 无审厂报告   0有审厂报告                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_new              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否新产品（0-不是，1-是）                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_hot              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否热销产品（0-不是，1-是）                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_url         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品图片                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">state               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">上架状态 0为下架 1为上架 2，删除                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tgp_qty             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'GP规格集装箱装载数量（单位：set）                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgp_qty             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40'GP规格集装箱装载数量（单位：set）                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhq_qty             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40'HQ规格集装箱装载数量（单位：set）                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffhq_qty            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45'HQ规格集装箱装载数量（单位：set）                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_qty              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'Refrigerated规格集装箱装载数量（单位：set）                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_qty              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40'Refrigerated规格集装箱装载数量（单位：set）                                             </t>
+  </si>
+  <si>
+    <t>inner_package_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内包装大小:长                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner_package_width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">内包装大小:宽                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner_package_high  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">内包装大小:高                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner_package_qty   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">内包装可装产品数                                                                           </t>
+  </si>
+  <si>
+    <t>outer_package_length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外包装纸箱大小:长                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer_package_width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">外包装纸箱大小:宽                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer_package_high  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">外包装纸箱大小:高                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer_package_qty   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">外包装纸箱可装产品数                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">commission_rate     </t>
+  </si>
+  <si>
+    <t>decimal(8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2):销售佣金(%)    </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">product_length      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品长                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_width       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品宽                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_high        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品高                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shipment_term       </t>
+  </si>
+  <si>
+    <t>装运条款(FOB、CFR、CIF、EXW、CIP、CPT、DDU、DDP、FCA、FAS、DAF、DES、DEQ、Express Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_unit        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品尺寸单位                                                                               </t>
+  </si>
+  <si>
+    <t>product_gross_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2):产品净重    </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">product_net_weight  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2):产品毛重 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">product_weight_unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品重量单位                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_type        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint(4)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品类型，默认0，0：进口，1：自营                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">grouporder_type     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拼单类型，默认0，0：总数达到MOQ，1：单个SKU达到MOQ                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loading_port        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">装货港口                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_state         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0审核中 1审核通过 -1不通过                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">home                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">up_time             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">down_time           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_sn          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(40) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">产品编码                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">类别名称                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_zh             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行业名对应的中文，新版                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_ja             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行业名对应的日语，新版                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_en             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行业名对应的英语，新版                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_es             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行业名对应的西班牙语，新版                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_ru             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">行业名对应的俄罗斯语，新版                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortName           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">url                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pid                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">父级ID                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_user_id      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">locale              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product         </t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_language</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品语言</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">部门id；自动增长列            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">company_id   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司id                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">部门名称                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">上级                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_path    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">部门全路径                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建时间                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新时间                      </t>
+  </si>
+  <si>
+    <t>删除标识:0.可用;1.已删除不可用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自增id                        </t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部门id                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户id                        </t>
+  </si>
+  <si>
+    <t>department_user</t>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门用户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigint(20)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">自增id                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_id     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品id:每一个商品id对应N个SKU                                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_props      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(128) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku属性。格式:pid:vid;pid:vid;如果多值那么格式为：pid:vid|vid2;pid:vid|vid2..  pid对应sku_pro表的pro_id;vid对应sku_pro_value表的pro_value_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_hash       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku hash码。根据sku_props生成一个bigint(目前是根据java string的hashcode算法):可以不用唯一;因为还有product_id这里sku_id就不是业务主键了       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_desc       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar(80)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku 描述：这是前端自由拼接而成。对应sku_props格式：颜色：红;尺寸：大                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_price     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">market_price   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_price     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_sn         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU编码                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_min        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最小商品购买数量                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_max        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU库存                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moq1           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOQ1、对应价格price1                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moq2           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOQ2、对应价格price2                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">moq3           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOQ3、对应价格price2                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">price1         </t>
+  </si>
+  <si>
+    <t>double(10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">price3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_url      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku缩略图片uri                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_time    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建时间                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_time    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新时间                                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_deleted     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinyint(4)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除标识：0.可用；1.已删除不可用                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro_id         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">自增id；属性id                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品id                                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro_name       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">分类名称:如 尺寸、颜色                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro_index      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">排序、这个排序可有可无                                                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_template    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否模板：0:否;1:是;没用了                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">description    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除标识:0.可用;1.已删除不可用                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro_value_id   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">自增id:属性值id                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性id:refer sku_pro的pro_id                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro_value      </t>
+  </si>
+  <si>
+    <t>属性值:如  大</t>
+  </si>
+  <si>
+    <t>pro_value_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性排序                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>sku</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_provalue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sku         </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sku_pro     </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku_provalue</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3578,7 +4236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3624,6 +4282,18 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3642,12 +4312,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3663,6 +4327,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3671,6 +4338,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5152,19 +5822,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="13" t="s">
         <v>551</v>
       </c>
@@ -5176,10 +5846,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5193,8 +5863,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
@@ -5206,8 +5876,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
@@ -5219,8 +5889,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
@@ -5232,8 +5902,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
@@ -5245,8 +5915,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
@@ -5258,8 +5928,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
@@ -5271,8 +5941,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5284,8 +5954,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
@@ -5297,8 +5967,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5310,8 +5980,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5323,8 +5993,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
@@ -5340,10 +6010,10 @@
       <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>309</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -5357,8 +6027,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
@@ -5370,8 +6040,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
@@ -5383,8 +6053,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
@@ -5396,8 +6066,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -5409,8 +6079,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
@@ -5426,10 +6096,10 @@
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>286</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -5443,8 +6113,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
@@ -5456,8 +6126,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
@@ -5469,8 +6139,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
@@ -5482,8 +6152,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
@@ -5495,8 +6165,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
@@ -5512,10 +6182,10 @@
       <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>287</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5529,8 +6199,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
@@ -5542,8 +6212,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
@@ -5555,8 +6225,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
@@ -5568,8 +6238,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
@@ -5581,8 +6251,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
@@ -5594,8 +6264,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
@@ -5607,8 +6277,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="1" t="s">
         <v>21</v>
       </c>
@@ -5620,8 +6290,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="1" t="s">
         <v>22</v>
       </c>
@@ -5633,8 +6303,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5646,8 +6316,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="1" t="s">
         <v>63</v>
       </c>
@@ -5659,8 +6329,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
@@ -5672,8 +6342,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
@@ -5685,8 +6355,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="1" t="s">
         <v>15</v>
       </c>
@@ -5698,8 +6368,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
@@ -5715,10 +6385,10 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="22" t="s">
         <v>545</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -5732,8 +6402,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="12" t="s">
         <v>518</v>
       </c>
@@ -5745,8 +6415,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="12" t="s">
         <v>520</v>
       </c>
@@ -5758,8 +6428,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="12" t="s">
         <v>522</v>
       </c>
@@ -5771,8 +6441,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12" t="s">
         <v>524</v>
       </c>
@@ -5784,8 +6454,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="12" t="s">
         <v>525</v>
       </c>
@@ -5797,8 +6467,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="12" t="s">
         <v>526</v>
       </c>
@@ -5810,8 +6480,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="12" t="s">
         <v>528</v>
       </c>
@@ -5823,8 +6493,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="12" t="s">
         <v>530</v>
       </c>
@@ -5836,8 +6506,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="12" t="s">
         <v>532</v>
       </c>
@@ -5849,8 +6519,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="12" t="s">
         <v>534</v>
       </c>
@@ -5862,8 +6532,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="12" t="s">
         <v>536</v>
       </c>
@@ -5875,8 +6545,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="6" t="s">
         <v>558</v>
       </c>
@@ -5888,8 +6558,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="12" t="s">
         <v>538</v>
       </c>
@@ -5901,8 +6571,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
-      <c r="B60" s="19"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="12" t="s">
         <v>317</v>
       </c>
@@ -5914,8 +6584,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="12" t="s">
         <v>320</v>
       </c>
@@ -5927,8 +6597,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="12" t="s">
         <v>322</v>
       </c>
@@ -5940,8 +6610,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="12" t="s">
         <v>325</v>
       </c>
@@ -5953,8 +6623,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="12" t="s">
         <v>327</v>
       </c>
@@ -5966,8 +6636,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
-      <c r="B65" s="19"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="12" t="s">
         <v>330</v>
       </c>
@@ -5979,8 +6649,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="12" t="s">
         <v>332</v>
       </c>
@@ -5992,8 +6662,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="12" t="s">
         <v>335</v>
       </c>
@@ -6005,8 +6675,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="12" t="s">
         <v>337</v>
       </c>
@@ -6018,8 +6688,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="12" t="s">
         <v>339</v>
       </c>
@@ -6031,8 +6701,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="16"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="12" t="s">
         <v>340</v>
       </c>
@@ -6044,8 +6714,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="16"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="12" t="s">
         <v>341</v>
       </c>
@@ -6057,8 +6727,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="16"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="12" t="s">
         <v>343</v>
       </c>
@@ -6070,8 +6740,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="16"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="12" t="s">
         <v>344</v>
       </c>
@@ -6083,8 +6753,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="16"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="12" t="s">
         <v>346</v>
       </c>
@@ -6096,8 +6766,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="16"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="12" t="s">
         <v>348</v>
       </c>
@@ -6109,8 +6779,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="17"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="12" t="s">
         <v>351</v>
       </c>
@@ -6129,10 +6799,10 @@
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="18" t="s">
         <v>546</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -6146,8 +6816,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="12" t="s">
         <v>356</v>
       </c>
@@ -6159,8 +6829,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="12" t="s">
         <v>359</v>
       </c>
@@ -6172,8 +6842,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="12" t="s">
         <v>361</v>
       </c>
@@ -6185,8 +6855,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="12" t="s">
         <v>363</v>
       </c>
@@ -6198,8 +6868,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="12" t="s">
         <v>366</v>
       </c>
@@ -6211,8 +6881,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="12" t="s">
         <v>368</v>
       </c>
@@ -6224,8 +6894,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="12" t="s">
         <v>370</v>
       </c>
@@ -6237,8 +6907,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="12" t="s">
         <v>373</v>
       </c>
@@ -6257,10 +6927,10 @@
       <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="18" t="s">
         <v>547</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -6274,8 +6944,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="12" t="s">
         <v>377</v>
       </c>
@@ -6287,8 +6957,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="12" t="s">
         <v>379</v>
       </c>
@@ -6300,8 +6970,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="12" t="s">
         <v>381</v>
       </c>
@@ -6313,8 +6983,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="12" t="s">
         <v>383</v>
       </c>
@@ -6326,8 +6996,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="12" t="s">
         <v>386</v>
       </c>
@@ -6339,8 +7009,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="12" t="s">
         <v>388</v>
       </c>
@@ -6359,10 +7029,10 @@
       <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="18" t="s">
         <v>548</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -6376,8 +7046,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="12" t="s">
         <v>392</v>
       </c>
@@ -6389,8 +7059,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="12" t="s">
         <v>394</v>
       </c>
@@ -6402,8 +7072,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="12" t="s">
         <v>396</v>
       </c>
@@ -6415,8 +7085,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="12" t="s">
         <v>399</v>
       </c>
@@ -6428,8 +7098,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="12" t="s">
         <v>401</v>
       </c>
@@ -6441,8 +7111,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="12" t="s">
         <v>554</v>
       </c>
@@ -6454,8 +7124,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="12" t="s">
         <v>404</v>
       </c>
@@ -6467,8 +7137,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="12" t="s">
         <v>407</v>
       </c>
@@ -6480,8 +7150,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="12" t="s">
         <v>409</v>
       </c>
@@ -6493,8 +7163,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="12" t="s">
         <v>411</v>
       </c>
@@ -6506,8 +7176,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="12" t="s">
         <v>413</v>
       </c>
@@ -6519,8 +7189,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="12" t="s">
         <v>415</v>
       </c>
@@ -6532,8 +7202,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="12" t="s">
         <v>417</v>
       </c>
@@ -6545,8 +7215,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="12" t="s">
         <v>420</v>
       </c>
@@ -6558,8 +7228,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="12" t="s">
         <v>422</v>
       </c>
@@ -6571,8 +7241,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="12" t="s">
         <v>424</v>
       </c>
@@ -6584,8 +7254,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="12" t="s">
         <v>426</v>
       </c>
@@ -6597,8 +7267,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="12" t="s">
         <v>428</v>
       </c>
@@ -6610,8 +7280,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="12" t="s">
         <v>430</v>
       </c>
@@ -6623,8 +7293,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="12" t="s">
         <v>432</v>
       </c>
@@ -6636,8 +7306,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="12" t="s">
         <v>434</v>
       </c>
@@ -6649,8 +7319,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="12" t="s">
         <v>436</v>
       </c>
@@ -6662,8 +7332,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="12" t="s">
         <v>438</v>
       </c>
@@ -6675,8 +7345,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="12" t="s">
         <v>440</v>
       </c>
@@ -6688,8 +7358,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="12" t="s">
         <v>441</v>
       </c>
@@ -6701,8 +7371,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="12" t="s">
         <v>443</v>
       </c>
@@ -6714,8 +7384,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="12" t="s">
         <v>445</v>
       </c>
@@ -6727,8 +7397,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="12" t="s">
         <v>446</v>
       </c>
@@ -6740,8 +7410,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="12" t="s">
         <v>448</v>
       </c>
@@ -6753,8 +7423,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" s="21"/>
-      <c r="B126" s="21"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="12" t="s">
         <v>450</v>
       </c>
@@ -6766,8 +7436,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="12" t="s">
         <v>453</v>
       </c>
@@ -6779,8 +7449,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="12" t="s">
         <v>455</v>
       </c>
@@ -6792,8 +7462,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="21"/>
-      <c r="B129" s="21"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="12" t="s">
         <v>457</v>
       </c>
@@ -6805,8 +7475,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="12" t="s">
         <v>459</v>
       </c>
@@ -6818,8 +7488,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="12" t="s">
         <v>461</v>
       </c>
@@ -6831,8 +7501,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="12" t="s">
         <v>463</v>
       </c>
@@ -6844,8 +7514,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="12" t="s">
         <v>465</v>
       </c>
@@ -6857,8 +7527,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="12" t="s">
         <v>467</v>
       </c>
@@ -6870,8 +7540,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="21"/>
-      <c r="B135" s="21"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="12" t="s">
         <v>469</v>
       </c>
@@ -6883,8 +7553,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="12" t="s">
         <v>471</v>
       </c>
@@ -6896,8 +7566,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A137" s="21"/>
-      <c r="B137" s="21"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="12" t="s">
         <v>473</v>
       </c>
@@ -6909,8 +7579,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="12" t="s">
         <v>474</v>
       </c>
@@ -6922,8 +7592,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="12" t="s">
         <v>475</v>
       </c>
@@ -6935,8 +7605,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="12" t="s">
         <v>478</v>
       </c>
@@ -6948,8 +7618,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="12" t="s">
         <v>480</v>
       </c>
@@ -6961,8 +7631,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="12" t="s">
         <v>483</v>
       </c>
@@ -6974,8 +7644,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="12" t="s">
         <v>485</v>
       </c>
@@ -6987,8 +7657,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="12" t="s">
         <v>487</v>
       </c>
@@ -7000,8 +7670,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="12" t="s">
         <v>489</v>
       </c>
@@ -7013,8 +7683,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="12" t="s">
         <v>491</v>
       </c>
@@ -7026,8 +7696,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="12" t="s">
         <v>493</v>
       </c>
@@ -7039,8 +7709,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="12" t="s">
         <v>495</v>
       </c>
@@ -7052,8 +7722,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="12" t="s">
         <v>497</v>
       </c>
@@ -7065,8 +7735,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="12" t="s">
         <v>499</v>
       </c>
@@ -7078,8 +7748,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="12" t="s">
         <v>501</v>
       </c>
@@ -7091,8 +7761,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="12" t="s">
         <v>503</v>
       </c>
@@ -7104,8 +7774,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="12" t="s">
         <v>504</v>
       </c>
@@ -7117,8 +7787,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="12" t="s">
         <v>506</v>
       </c>
@@ -7130,8 +7800,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="12" t="s">
         <v>508</v>
       </c>
@@ -7143,8 +7813,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="12" t="s">
         <v>510</v>
       </c>
@@ -7156,8 +7826,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="12" t="s">
         <v>512</v>
       </c>
@@ -7169,8 +7839,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="12" t="s">
         <v>514</v>
       </c>
@@ -7187,10 +7857,10 @@
       <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="18" t="s">
         <v>764</v>
       </c>
       <c r="C160" s="12" t="s">
@@ -7205,8 +7875,8 @@
       <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="12" t="s">
         <v>731</v>
       </c>
@@ -7219,8 +7889,8 @@
       <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21"/>
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="12" t="s">
         <v>733</v>
       </c>
@@ -7233,8 +7903,8 @@
       <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="12" t="s">
         <v>735</v>
       </c>
@@ -7247,8 +7917,8 @@
       <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="12" t="s">
         <v>738</v>
       </c>
@@ -7261,8 +7931,8 @@
       <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="12" t="s">
         <v>740</v>
       </c>
@@ -7275,8 +7945,8 @@
       <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21"/>
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="12" t="s">
         <v>742</v>
       </c>
@@ -7289,8 +7959,8 @@
       <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="12" t="s">
         <v>744</v>
       </c>
@@ -7303,8 +7973,8 @@
       <c r="F167" s="12"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21"/>
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="12" t="s">
         <v>746</v>
       </c>
@@ -7317,8 +7987,8 @@
       <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21"/>
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="12" t="s">
         <v>748</v>
       </c>
@@ -7331,8 +8001,8 @@
       <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="21"/>
-      <c r="B170" s="21"/>
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
       <c r="C170" s="12" t="s">
         <v>598</v>
       </c>
@@ -7345,8 +8015,8 @@
       <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
       <c r="C171" s="12" t="s">
         <v>753</v>
       </c>
@@ -7361,8 +8031,8 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21"/>
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
       <c r="C172" s="12" t="s">
         <v>757</v>
       </c>
@@ -7375,8 +8045,8 @@
       <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21"/>
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
       <c r="C173" s="12" t="s">
         <v>760</v>
       </c>
@@ -7535,6 +8205,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A160:A173"/>
+    <mergeCell ref="B160:B173"/>
+    <mergeCell ref="A96:A158"/>
+    <mergeCell ref="B96:B158"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A78:A86"/>
@@ -7551,10 +8225,6 @@
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="A46:A76"/>
     <mergeCell ref="B46:B76"/>
-    <mergeCell ref="A160:A173"/>
-    <mergeCell ref="B160:B173"/>
-    <mergeCell ref="A96:A158"/>
-    <mergeCell ref="B96:B158"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7566,7 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -7579,21 +8249,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
         <v>551</v>
       </c>
@@ -7606,10 +8276,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>572</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -7623,8 +8293,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="12" t="s">
         <v>565</v>
       </c>
@@ -7636,8 +8306,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="12" t="s">
         <v>567</v>
       </c>
@@ -7649,8 +8319,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>569</v>
       </c>
@@ -7667,10 +8337,10 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>644</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>645</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -7687,8 +8357,8 @@
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
         <v>576</v>
       </c>
@@ -7703,8 +8373,8 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>579</v>
       </c>
@@ -7719,8 +8389,8 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="12" t="s">
         <v>581</v>
       </c>
@@ -7735,8 +8405,8 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12" t="s">
         <v>583</v>
       </c>
@@ -7751,8 +8421,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12" t="s">
         <v>585</v>
       </c>
@@ -7767,8 +8437,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12" t="s">
         <v>587</v>
       </c>
@@ -7783,8 +8453,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
         <v>589</v>
       </c>
@@ -7799,8 +8469,8 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>591</v>
       </c>
@@ -7815,8 +8485,8 @@
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>594</v>
       </c>
@@ -7831,8 +8501,8 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12" t="s">
         <v>596</v>
       </c>
@@ -7847,8 +8517,8 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12" t="s">
         <v>598</v>
       </c>
@@ -7863,8 +8533,8 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
         <v>601</v>
       </c>
@@ -7879,8 +8549,8 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12" t="s">
         <v>603</v>
       </c>
@@ -7895,8 +8565,8 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>605</v>
       </c>
@@ -7911,8 +8581,8 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>607</v>
       </c>
@@ -7927,8 +8597,8 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>610</v>
       </c>
@@ -7943,8 +8613,8 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>613</v>
       </c>
@@ -7959,8 +8629,8 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>615</v>
       </c>
@@ -7975,8 +8645,8 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>618</v>
       </c>
@@ -7991,8 +8661,8 @@
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>620</v>
       </c>
@@ -8007,8 +8677,8 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>623</v>
       </c>
@@ -8023,8 +8693,8 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>625</v>
       </c>
@@ -8039,8 +8709,8 @@
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>627</v>
       </c>
@@ -8055,8 +8725,8 @@
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>630</v>
       </c>
@@ -8071,8 +8741,8 @@
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>632</v>
       </c>
@@ -8087,8 +8757,8 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>635</v>
       </c>
@@ -8103,8 +8773,8 @@
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>637</v>
       </c>
@@ -8119,8 +8789,8 @@
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>639</v>
       </c>
@@ -8135,8 +8805,8 @@
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>641</v>
       </c>
@@ -8151,8 +8821,8 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="12" t="s">
         <v>643</v>
       </c>
@@ -8171,10 +8841,10 @@
       <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="19" t="s">
         <v>790</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="19" t="s">
         <v>803</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -8192,8 +8862,8 @@
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="12" t="s">
         <v>766</v>
       </c>
@@ -8209,8 +8879,8 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="12" t="s">
         <v>769</v>
       </c>
@@ -8226,8 +8896,8 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="12" t="s">
         <v>770</v>
       </c>
@@ -8243,8 +8913,8 @@
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="12" t="s">
         <v>772</v>
       </c>
@@ -8260,8 +8930,8 @@
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="12" t="s">
         <v>774</v>
       </c>
@@ -8277,8 +8947,8 @@
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="12" t="s">
         <v>565</v>
       </c>
@@ -8294,8 +8964,8 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="12" t="s">
         <v>777</v>
       </c>
@@ -8311,8 +8981,8 @@
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="12" t="s">
         <v>779</v>
       </c>
@@ -8328,8 +8998,8 @@
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="12" t="s">
         <v>782</v>
       </c>
@@ -8345,8 +9015,8 @@
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="12" t="s">
         <v>784</v>
       </c>
@@ -8362,8 +9032,8 @@
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="12" t="s">
         <v>786</v>
       </c>
@@ -8379,8 +9049,8 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="12" t="s">
         <v>788</v>
       </c>
@@ -8400,10 +9070,10 @@
       <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="19" t="s">
         <v>802</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -8417,8 +9087,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="12" t="s">
         <v>792</v>
       </c>
@@ -8430,8 +9100,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="12" t="s">
         <v>795</v>
       </c>
@@ -8443,8 +9113,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="12" t="s">
         <v>797</v>
       </c>
@@ -8456,8 +9126,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="12" t="s">
         <v>799</v>
       </c>
@@ -8473,10 +9143,10 @@
       <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="19" t="s">
         <v>820</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -8494,8 +9164,8 @@
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="12" t="s">
         <v>807</v>
       </c>
@@ -8511,8 +9181,8 @@
       <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="12" t="s">
         <v>809</v>
       </c>
@@ -8528,8 +9198,8 @@
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="12" t="s">
         <v>811</v>
       </c>
@@ -8545,8 +9215,8 @@
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="12" t="s">
         <v>814</v>
       </c>
@@ -8562,8 +9232,8 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="12" t="s">
         <v>817</v>
       </c>
@@ -9024,18 +9694,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A40:A52"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="A8:A38"/>
     <mergeCell ref="B8:B38"/>
-    <mergeCell ref="A40:A52"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9044,10 +9714,504 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>965</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
+        <v>964</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection sqref="A1:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9060,19 +10224,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="13" t="s">
         <v>551</v>
       </c>
@@ -9084,10 +10248,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>722</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>727</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -9105,8 +10269,8 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="12" t="s">
         <v>353</v>
       </c>
@@ -9122,8 +10286,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="12" t="s">
         <v>651</v>
       </c>
@@ -9139,8 +10303,8 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="12" t="s">
         <v>653</v>
       </c>
@@ -9156,8 +10320,8 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="12" t="s">
         <v>656</v>
       </c>
@@ -9173,8 +10337,8 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="12" t="s">
         <v>658</v>
       </c>
@@ -9190,8 +10354,8 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="12" t="s">
         <v>660</v>
       </c>
@@ -9207,8 +10371,8 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="12" t="s">
         <v>662</v>
       </c>
@@ -9224,8 +10388,8 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="12" t="s">
         <v>664</v>
       </c>
@@ -9241,8 +10405,8 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="12" t="s">
         <v>667</v>
       </c>
@@ -9258,8 +10422,8 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="12" t="s">
         <v>669</v>
       </c>
@@ -9275,8 +10439,8 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="12" t="s">
         <v>671</v>
       </c>
@@ -9292,8 +10456,8 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="12" t="s">
         <v>673</v>
       </c>
@@ -9309,8 +10473,8 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="12" t="s">
         <v>675</v>
       </c>
@@ -9326,8 +10490,8 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="12" t="s">
         <v>677</v>
       </c>
@@ -9343,8 +10507,8 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="12" t="s">
         <v>680</v>
       </c>
@@ -9360,8 +10524,8 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="12" t="s">
         <v>682</v>
       </c>
@@ -9377,8 +10541,8 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12" t="s">
         <v>685</v>
       </c>
@@ -9398,10 +10562,10 @@
       <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="19" t="s">
         <v>726</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -9419,8 +10583,8 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>688</v>
       </c>
@@ -9436,8 +10600,8 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>690</v>
       </c>
@@ -9453,8 +10617,8 @@
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>692</v>
       </c>
@@ -9470,8 +10634,8 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="12" t="s">
         <v>694</v>
       </c>
@@ -9491,10 +10655,10 @@
       <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="19" t="s">
         <v>725</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -9512,8 +10676,8 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>698</v>
       </c>
@@ -9529,8 +10693,8 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>700</v>
       </c>
@@ -9546,8 +10710,8 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>702</v>
       </c>
@@ -9563,8 +10727,8 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>704</v>
       </c>
@@ -9580,8 +10744,8 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>706</v>
       </c>
@@ -9597,8 +10761,8 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>708</v>
       </c>
@@ -9614,8 +10778,8 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>353</v>
       </c>
@@ -9631,8 +10795,8 @@
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>710</v>
       </c>
@@ -9648,8 +10812,8 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>713</v>
       </c>
@@ -9665,8 +10829,8 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>715</v>
       </c>
@@ -9682,8 +10846,8 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="12" t="s">
         <v>717</v>
       </c>
@@ -9699,8 +10863,8 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="12" t="s">
         <v>720</v>
       </c>
@@ -10053,14 +11217,1479 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="B28:B40"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="B28:B40"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="156.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>943</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="14"/>
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="20"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="20"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="20"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="12" t="s">
+        <v>982</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="12" t="s">
+        <v>994</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>997</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A71:A91"/>
+    <mergeCell ref="B71:B91"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A103:A110"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B3:B50"/>
+    <mergeCell ref="A3:A50"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="B52:B62"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
